--- a/Training histories, saved models, confusion matrices/Philipp/13 all_data_3ConvLayers_down_changed_architecture_100_100_dropout_0_6/history_all_data_3ConvLayers_down_changed_architecture_100_100_dropout_0_6_1to15.xlsx
+++ b/Training histories, saved models, confusion matrices/Philipp/13 all_data_3ConvLayers_down_changed_architecture_100_100_dropout_0_6/history_all_data_3ConvLayers_down_changed_architecture_100_100_dropout_0_6_1to15.xlsx
@@ -1,43 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippmetzger/Documents/GitHub/Deep_Learning_Project_Group_10/Training histories, saved models, confusion matrices/Philipp/13 all_data_3ConvLayers_down_changed_architecture_100_100_dropout_0_6/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2782AA-28C3-914E-BBB6-5E9F134DA9AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +84,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,294 +420,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>acc</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>val_loss</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4.232865333557129</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08517304062843323</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.93923282623291</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.2328653335571289</v>
+      </c>
+      <c r="C2">
+        <v>8.5173040628433228E-2</v>
+      </c>
+      <c r="D2">
+        <v>2.9392328262329102</v>
+      </c>
+      <c r="E2">
         <v>0.2382005304098129</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="G2">
+        <f>C2-E2</f>
+        <v>-0.15302748978137967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.349529027938843</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4113661348819733</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>2.3495290279388432</v>
+      </c>
+      <c r="C3">
+        <v>0.41136613488197332</v>
+      </c>
+      <c r="D3">
         <v>1.477169275283813</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.6552428007125854</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="E3">
+        <v>0.65524280071258545</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="0">C3-E3</f>
+        <v>-0.24387666583061213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.15786349773407</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.7059380412101746</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6298051476478577</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8660600185394287</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>0.70593804121017456</v>
+      </c>
+      <c r="D4">
+        <v>0.62980514764785767</v>
+      </c>
+      <c r="E4">
+        <v>0.86606001853942871</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-0.16012197732925415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.5522143840789795</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8562113046646118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3243278861045837</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.929585874080658</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>0.55221438407897949</v>
+      </c>
+      <c r="C5">
+        <v>0.85621130466461182</v>
+      </c>
+      <c r="D5">
+        <v>0.32432788610458368</v>
+      </c>
+      <c r="E5">
+        <v>0.92958587408065796</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-7.3374569416046143E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.3287372887134552</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.9141712188720703</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2292100042104721</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9507611393928528</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>0.91417121887207031</v>
+      </c>
+      <c r="D6">
+        <v>0.22921000421047211</v>
+      </c>
+      <c r="E6">
+        <v>0.95076113939285278</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-3.6589920520782471E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.2341806888580322</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.9410200119018555</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2120982855558395</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.955353319644928</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>0.94102001190185547</v>
+      </c>
+      <c r="D7">
+        <v>0.21209828555583951</v>
+      </c>
+      <c r="E7">
+        <v>0.95535331964492798</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-1.433330774307251E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.1723341792821884</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9578506350517273</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1604598462581635</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9626668691635132</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>0.17233417928218839</v>
+      </c>
+      <c r="C8">
+        <v>0.95785063505172729</v>
+      </c>
+      <c r="D8">
+        <v>0.16045984625816351</v>
+      </c>
+      <c r="E8">
+        <v>0.96266686916351318</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-4.8162341117858887E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.1482687145471573</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9658651947975159</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1651534140110016</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9676843285560608</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>0.14826871454715729</v>
+      </c>
+      <c r="C9">
+        <v>0.96586519479751587</v>
+      </c>
+      <c r="D9">
+        <v>0.16515341401100159</v>
+      </c>
+      <c r="E9">
+        <v>0.96768432855606079</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-1.8191337585449219E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.126517191529274</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9703096747398376</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10">
+        <v>0.12651719152927399</v>
+      </c>
+      <c r="C10">
+        <v>0.97030967473983765</v>
+      </c>
+      <c r="D10">
         <v>0.1761388182640076</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.9667488932609558</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="E10">
+        <v>0.96674889326095581</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.5607814788818359E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.1218319535255432</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.9718397259712219</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.97183972597122192</v>
+      </c>
+      <c r="D11">
         <v>0.2303795516490936</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.9630070328712463</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="E11">
+        <v>0.96300703287124634</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8.8326930999755859E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.1235862672328949</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.9735519289970398</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.156393975019455</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9696402549743652</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>0.97355192899703979</v>
+      </c>
+      <c r="D12">
+        <v>0.15639397501945501</v>
+      </c>
+      <c r="E12">
+        <v>0.96964025497436523</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.9116740226745605E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1082647815346718</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.976393461227417</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1541993767023087</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9681095480918884</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13">
+        <v>0.97639346122741699</v>
+      </c>
+      <c r="D13">
+        <v>0.15419937670230871</v>
+      </c>
+      <c r="E13">
+        <v>0.96810954809188843</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>8.2839131355285645E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.1206029802560806</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.9765756130218506</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.97657561302185059</v>
+      </c>
+      <c r="D14">
         <v>0.1539522856473923</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.9723616242408752</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="E14">
+        <v>0.97236162424087524</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>4.2139887809753418E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.1222611144185066</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9764298796653748</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1891108006238937</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9709159135818481</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15">
+        <v>0.12226111441850659</v>
+      </c>
+      <c r="C15">
+        <v>0.97642987966537476</v>
+      </c>
+      <c r="D15">
+        <v>0.18911080062389371</v>
+      </c>
+      <c r="E15">
+        <v>0.97091591358184814</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>5.5139660835266113E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1221841052174568</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.9781056642532349</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.2941544950008392</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9645377993583679</v>
+      <c r="C16">
+        <v>0.97810566425323486</v>
+      </c>
+      <c r="D16">
+        <v>0.29415449500083918</v>
+      </c>
+      <c r="E16">
+        <v>0.96453779935836792</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.3567864894866943E-2</v>
       </c>
     </row>
   </sheetData>
